--- a/Manuscript/Gigas_literature.xlsx
+++ b/Manuscript/Gigas_literature.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/github/gigas-popgen/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2996DC6B-2746-AD46-9E67-82080F0267DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB2186-2A67-3E40-B3A7-ACAECF181026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="520" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{C4B15092-ABA4-2C47-BAA9-EC00FDC1D8E9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="552">
   <si>
     <t>Author</t>
   </si>
@@ -1542,9 +1542,6 @@
     <t>Miyagi (1); Taiwan (1)</t>
   </si>
   <si>
-    <t>Europe (22) - same as Gagnaire</t>
-  </si>
-  <si>
     <t>Lapègue</t>
   </si>
   <si>
@@ -1651,6 +1648,51 @@
   </si>
   <si>
     <t>Epigenetics</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Genetic structure and diversity of Crassostrea gigas in Korea revealed from microsatellite markers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochemical systematics and ecology </t>
+  </si>
+  <si>
+    <t>Korea (6)</t>
+  </si>
+  <si>
+    <t>Fst was very low; previous study with COI detected no structure</t>
+  </si>
+  <si>
+    <t>Europe (23)</t>
+  </si>
+  <si>
+    <t>1 Miyagi</t>
+  </si>
+  <si>
+    <t>4 China; 1 Miygai</t>
+  </si>
+  <si>
+    <t>Europe (2); BC (5)</t>
+  </si>
+  <si>
+    <t>BC (3); Guernsey (1)</t>
+  </si>
+  <si>
+    <t>Europe (2)</t>
+  </si>
+  <si>
+    <t>Europe (2) - same as Gagnaire</t>
+  </si>
+  <si>
+    <t>Natlantic (2)</t>
+  </si>
+  <si>
+    <t>Spain (2)</t>
+  </si>
+  <si>
+    <t>Spain (1)</t>
   </si>
 </sst>
 </file>
@@ -5014,12 +5056,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88000239-B1FE-3A45-95D1-261CBAC1F495}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5090,7 +5132,7 @@
         <v>430</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5110,13 +5152,13 @@
         <v>430</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>460</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5165,7 +5207,7 @@
         <v>430</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5191,10 +5233,10 @@
         <v>470</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -5205,7 +5247,7 @@
         <v>2002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>157</v>
@@ -5220,10 +5262,10 @@
         <v>470</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5246,10 +5288,10 @@
         <v>459</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -5956,10 +5998,10 @@
         <v>470</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -5985,13 +6027,13 @@
         <v>470</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -6054,16 +6096,16 @@
     </row>
     <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B43" s="13">
         <v>2012</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>430</v>
@@ -6072,13 +6114,13 @@
         <v>451</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -6101,16 +6143,16 @@
         <v>451</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>527</v>
-      </c>
       <c r="K44" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -6136,16 +6178,16 @@
         <v>470</v>
       </c>
       <c r="H45" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>466</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="119" x14ac:dyDescent="0.2">
@@ -6171,13 +6213,13 @@
         <v>470</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -6200,16 +6242,16 @@
         <v>451</v>
       </c>
       <c r="G47" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -6270,10 +6312,10 @@
         <v>458</v>
       </c>
       <c r="H49" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="K49" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -6295,6 +6337,15 @@
       <c r="F50" s="10" t="s">
         <v>451</v>
       </c>
+      <c r="G50" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
@@ -6370,6 +6421,9 @@
       <c r="F53" s="10" t="s">
         <v>451</v>
       </c>
+      <c r="I53" s="10" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
@@ -6426,7 +6480,7 @@
         <v>460</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -6448,10 +6502,19 @@
       <c r="F56" s="10" t="s">
         <v>451</v>
       </c>
+      <c r="G56" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B57" s="10">
         <v>2020</v>
@@ -6475,7 +6538,7 @@
         <v>500</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>499</v>
@@ -6500,6 +6563,18 @@
       <c r="F58" s="10" t="s">
         <v>451</v>
       </c>
+      <c r="G58" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
@@ -6520,6 +6595,9 @@
       <c r="F59" s="10" t="s">
         <v>451</v>
       </c>
+      <c r="I59" s="10" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
@@ -6571,6 +6649,32 @@
       </c>
       <c r="F61" s="10" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B62" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
